--- a/biology/Histoire de la zoologie et de la botanique/Henry_Seebohm/Henry_Seebohm.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Seebohm/Henry_Seebohm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Seebohm (12 juillet 1832 - 26 novembre 1895) est un industriel anglais (métallurgie), voyageur et ornithologue amateur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né à Bradford. Son intérêt pour l'histoire naturelle le pousse à voyager, en Grèce, Scandinavie, Turquie, et Afrique du Sud. Ses expéditions dans la toundra de Sibérie dans la région de l'Ienisseï sont décrites dans ses principaux livres, Siberia in Europe (1880) et Siberia in Asia (1882), qui furent fusionnés en une seule  publication posthume The Birds of Siberia (1901).
 Il est un des premiers ornithologues européens, à adopter la nomenclature trinomiale pour classer les sous-espèces.
@@ -544,9 +558,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1880 : Siberia in Europe: a visit to the valley of the Petchora, in north-east Russia; with descriptions of the natural history, migration of birds, etc.[1] (J. Murray, Londres).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1880 : Siberia in Europe: a visit to the valley of the Petchora, in north-east Russia; with descriptions of the natural history, migration of birds, etc. (J. Murray, Londres).
 1883 : A History of British Birds.
 1887 : The Geographical Distribution of the family Charadriidae.
 1890 : The Birds of the Japanese Empire.
